--- a/Resultado Base de Dados.xlsx
+++ b/Resultado Base de Dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>BASES DE DADOS</t>
   </si>
@@ -47,26 +47,38 @@
     <t>3ª String de Pesquisa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Filtros Aplicados</t>
-  </si>
-  <si>
-    <t>Ano de publicação a partir de 2012</t>
-  </si>
-  <si>
     <t>SCOPUS</t>
   </si>
   <si>
-    <t>BDBCOMP</t>
-  </si>
-  <si>
     <t>Ser artigos, ou publicações em jornal, revista, e converencias, ou ser livros e ser em Ingles</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>RESULTADO FINAL</t>
+  </si>
+  <si>
+    <t>1ª String</t>
+  </si>
+  <si>
+    <t>2ª String</t>
+  </si>
+  <si>
+    <t>3ª String</t>
+  </si>
+  <si>
+    <t>BDCOMP</t>
+  </si>
+  <si>
+    <t>De 408 arquivos retornados foram selecionados 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +110,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,17 +149,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,18 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -479,66 +516,61 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1492</v>
+      </c>
+      <c r="C6" s="14">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1494</v>
-      </c>
-      <c r="C2" s="4">
-        <v>786</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="B7" s="14">
         <v>778</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C7" s="14">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -553,43 +585,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>2892</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -604,12 +634,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7">
         <v>4672</v>
@@ -620,41 +650,85 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="19">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
@@ -666,15 +740,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultado Base de Dados.xlsx
+++ b/Resultado Base de Dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>BASES DE DADOS</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>De 408 arquivos retornados foram selecionados 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem as duplicatas restaram 415 com mais 7 do Bdcomp = 422 </t>
   </si>
 </sst>
 </file>
@@ -152,31 +155,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +550,10 @@
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>1492</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>786</v>
       </c>
     </row>
@@ -558,130 +561,130 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="8">
         <v>778</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="14">
         <v>3627</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="14">
         <v>1755</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="14">
         <v>2892</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="14">
         <v>3280</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="14">
         <v>1671</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="14">
         <v>4672</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="14">
         <v>1375</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -689,11 +692,15 @@
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <v>78</v>
+      </c>
       <c r="C24" s="4">
         <v>63</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -713,14 +720,25 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A20:C21"/>
@@ -737,9 +755,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
